--- a/40_数据库/学习笔记_RDBMS_PostgreSql.xlsx
+++ b/40_数据库/学习笔记_RDBMS_PostgreSql.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF406E-3EAA-46EC-B402-1EC41BB4448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="安装" sheetId="2" r:id="rId2"/>
     <sheet name="知识点" sheetId="3" r:id="rId3"/>
     <sheet name="语法" sheetId="5" r:id="rId4"/>
-    <sheet name="示例" sheetId="6" r:id="rId5"/>
-    <sheet name="总结" sheetId="4" r:id="rId6"/>
-    <sheet name="索引" sheetId="8" r:id="rId7"/>
-    <sheet name="类型" sheetId="9" r:id="rId8"/>
-    <sheet name="参考" sheetId="7" r:id="rId9"/>
+    <sheet name="代码示例" sheetId="6" r:id="rId5"/>
+    <sheet name="SQL示例" sheetId="11" r:id="rId6"/>
+    <sheet name="总结" sheetId="4" r:id="rId7"/>
+    <sheet name="索引" sheetId="8" r:id="rId8"/>
+    <sheet name="函数" sheetId="13" r:id="rId9"/>
+    <sheet name="表" sheetId="12" r:id="rId10"/>
+    <sheet name="更新" sheetId="10" r:id="rId11"/>
+    <sheet name="类型" sheetId="9" r:id="rId12"/>
+    <sheet name="参考" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="1574">
   <si>
     <r>
       <rPr>
@@ -28264,15 +28267,599 @@
     <t>删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>update t_ebom_db_material_type
+set cost_attr=B."C",
+cost_attr_name=B."D"
+from (
+SELECT  '1'  AS "ROWNO", 'TJGC'  AS "A", '通机国产'  AS "B", 'TJGC'  AS "C", '通机国产'  AS "D"
+UNION ALL SELECT  '2' , 'TJJP' , '通机进口' , 'TJJP' , '通机进口' 
+UNION ALL SELECT  '3' , 'JKRX' , '进口日系' , 'TJJPB' , '通机进口(保税)' 
+) B
+join t_ebom_db_material_type PR /**/
+ on PR.material_type_no = B."A"
+where t_ebom_db_material_type.level_num ='2' 
+ and t_ebom_db_material_type.parent_material_type_id = PR.material_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多表更新示例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在PostgreSQL中，在单个查询中执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作通常不是一个直接支持的操作，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>语句本身不支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。但是，你可以通过几种方法来实现类似的效果，例如使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>子句中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>或者在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>语句中使用子查询。</t>
+    </r>
+  </si>
+  <si>
+    <t>方法1：使用子查询</t>
+  </si>
+  <si>
+    <r>
+      <t>你可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>语句中使用子查询来引用其他表的数据。例如，假设我们有两个表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>departments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，我们想要根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>departments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>表更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>表中的某些字段。</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE employees
+SET department_name = sub.department_name
+FROM departments sub
+WHERE employees.department_id = sub.department_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在这个例子中，我们从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>departments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>表中选取了数据，并将其用于更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>department_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>字段。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>方法2：使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE ... FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>结构（PostgreSQL 11及以上版本）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从PostgreSQL 11开始，你可以直接在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>语句中使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>子句来进行表的连接，这类似于其他一些数据库系统（如MySQL 8.0+）中的语法。</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATE employees
+SET department_name = d.department_name
+FROM departments d
+WHERE employees.department_id = d.department_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种方法更加直观和符合SQL标准。</t>
+  </si>
+  <si>
+    <t>方法3：使用临时表或CTE（公用表表达式）</t>
+  </si>
+  <si>
+    <t>如果你需要更复杂的逻辑，可以先在临时表或CTE中执行复杂的查询，然后再用结果更新表。</t>
+  </si>
+  <si>
+    <t>WITH updated_dept AS (
+    SELECT e.employee_id, d.department_name
+    FROM employees e
+    JOIN departments d ON e.department_id = d.department_id
+)
+UPDATE employees
+SET department_name = ud.department_name
+FROM updated_dept ud
+WHERE employees.employee_id = ud.employee_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法4：使用PL/pgSQL函数（如果需要更复杂的逻辑）</t>
+  </si>
+  <si>
+    <t>如果更新逻辑非常复杂，或者需要基于多个条件动态地选择更新哪些行，你可以使用PL/pgSQL编写一个函数：</t>
+  </si>
+  <si>
+    <t>DO $$
+BEGIN
+    UPDATE employees
+    SET department_name = d.department_name
+    FROM departments d
+    WHERE employees.department_id = d.department_id;
+END $$;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种方法提供了最大的灵活性，允许你在函数内部执行更复杂的逻辑。</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>选择哪种方法取决于你的具体需求和PostgreSQL的版本。对于简单的连接更新，方法2（PostgreSQL 11及以上）是最直接和推荐的方式。对于更复杂的逻辑，可以考虑使用子查询或PL/pgSQL函数。</t>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gen_random_uuid()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除表数据（无日志）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>truncate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t_ebom_db_material_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE t_pbom_db_resource_type ADD COLUMN  prop_relate_edit_flag varchar(10) DEFAULT 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改表增加列：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加注释：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT ON COLUMN t_pbom_db_resource_type.prop_relate_edit_flag IS '所属关系维护标志:0-否，1是';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WITH RECURSIVE subdepartments AS (
+    SELECT id, name, parent_id
+    FROM departments
+    WHERE id = 5  -- 起始部门ID
+    UNION ALL
+    SELECT d.id, d.name, d.parent_id
+    FROM departments d
+    INNER JOIN subdepartments sd ON d.parent_id = sd.id
+)
+DELETE FROM departments
+WHERE id IN (SELECT id FROM subdepartments);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归删除：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，递归删除通常指的是使用递归查询（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WITH RECURSIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）来删除满足特定条件的记录，特别是在处理树形结构或层级数据时非常有用。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如，如果你有一个部门（Department）表，其中每个部门都有一个上级部门ID，你可以使用递归查询来删除整个部门的层级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULLIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*NULLIF函数示例：将所有奖金等于工资的员工的奖金设置为零*/
+UPDATE employees SET bonus = CASE WHEN NULLIF(bonus, salary) IS NULL THEN 0 ELSE bonus END;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yy/m/d;@"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="88">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28834,6 +29421,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -29004,7 +29648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -29261,24 +29905,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="72" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -29309,12 +29935,54 @@
     <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{7C2548D9-E863-4A3B-87C5-CB8600890DF0}"/>
-    <cellStyle name="常规 2 10" xfId="4" xr:uid="{AA7CA616-2765-409D-AB57-288F83D05FA3}"/>
-    <cellStyle name="常规_数据库变更记录_090415客户" xfId="2" xr:uid="{D3C100BE-37D3-463B-A0C4-F69FC53A3237}"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 2 10" xfId="4"/>
+    <cellStyle name="常规_数据库变更记录_090415客户" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -29342,7 +30010,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -29620,7 +30288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -29850,12 +30518,638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="113" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="122" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+    </row>
+    <row r="11" spans="1:11" ht="18">
+      <c r="A11" s="113" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="121" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B12:K12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25">
+      <c r="A1" s="110" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="123" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="9" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25">
+      <c r="B19" s="111" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="120" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="9" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25">
+      <c r="B29" s="111" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="9" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="124" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25">
+      <c r="B38" s="111" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="9" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="124" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="124"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="124"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="124"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+    </row>
+    <row r="50" spans="2:8" ht="17.25">
+      <c r="B50" s="111" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="9" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="124" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="9" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="17.25">
+      <c r="B61" s="111" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="9" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:H15"/>
+    <mergeCell ref="B22:H27"/>
+    <mergeCell ref="B31:H36"/>
+    <mergeCell ref="B40:H49"/>
+    <mergeCell ref="B52:H59"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="95" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="95" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="95" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J579"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31739,7 +33033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -32191,7 +33485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2055"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -35774,13 +37068,13 @@
       <c r="G371" s="35"/>
     </row>
     <row r="372" spans="2:7" ht="15" thickTop="1">
-      <c r="B372" s="96" t="s">
+      <c r="B372" s="114" t="s">
         <v>610</v>
       </c>
-      <c r="C372" s="99" t="s">
+      <c r="C372" s="117" t="s">
         <v>611</v>
       </c>
-      <c r="D372" s="99" t="s">
+      <c r="D372" s="117" t="s">
         <v>612</v>
       </c>
       <c r="E372" s="64" t="s">
@@ -35792,17 +37086,17 @@
       <c r="G372" s="35"/>
     </row>
     <row r="373" spans="2:7">
-      <c r="B373" s="97"/>
-      <c r="C373" s="100"/>
-      <c r="D373" s="100"/>
+      <c r="B373" s="115"/>
+      <c r="C373" s="118"/>
+      <c r="D373" s="118"/>
       <c r="E373" s="66"/>
       <c r="F373" s="67"/>
       <c r="G373" s="35"/>
     </row>
     <row r="374" spans="2:7" ht="15" thickBot="1">
-      <c r="B374" s="98"/>
-      <c r="C374" s="101"/>
-      <c r="D374" s="101"/>
+      <c r="B374" s="116"/>
+      <c r="C374" s="119"/>
+      <c r="D374" s="119"/>
       <c r="E374" s="68" t="s">
         <v>615</v>
       </c>
@@ -51305,19 +52599,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B639" r:id="rId1" tooltip="操作系统知识库" display="http://lib.csdn.net/base/operatingsystem" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B1079" r:id="rId2" tooltip="算法与数据结构知识库" display="http://lib.csdn.net/base/datastructure" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B639" r:id="rId1" tooltip="操作系统知识库" display="http://lib.csdn.net/base/operatingsystem"/>
+    <hyperlink ref="B1079" r:id="rId2" tooltip="算法与数据结构知识库" display="http://lib.csdn.net/base/datastructure"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B198"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A136" sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -52299,11 +53593,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="105" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25">
+      <c r="A4" s="105" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75">
+      <c r="B5" s="112" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -52446,20 +53776,136 @@
         <v>1508</v>
       </c>
     </row>
+    <row r="33" spans="1:7" ht="23.25">
+      <c r="A33" s="110" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="7" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="120" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B36:G47"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2C75F0-963B-464B-9267-AA74D3C1FE6F}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
@@ -52476,59 +53922,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="105" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="96" t="s">
         <v>1515</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="96" t="s">
         <v>1516</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="96" t="s">
         <v>1517</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="96" t="s">
         <v>1518</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="96" t="s">
         <v>1519</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="96" t="s">
         <v>1520</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="96" t="s">
         <v>1521</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="97" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="B3" s="104">
+      <c r="B3" s="98">
         <v>1</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="106" t="s">
         <v>1523</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="107" t="s">
         <v>1537</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="108" t="s">
         <v>1524</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="99" t="s">
         <v>1538</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="99" t="s">
         <v>1525</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="99" t="s">
         <v>1526</v>
       </c>
-      <c r="I3" s="106" t="str">
+      <c r="I3" s="100" t="str">
         <f>IF(G3="是",IF(H3="新增",CONCATENATE("alter table ",C3," add primary key (",D3,");"),CONCATENATE("alter table ",C3," DROP CONSTRAINT ",E3,";")),
 IF(F3="是",IF(H3="新增",CONCATENATE("CREATE UNIQUE INDEX ",E3," ON public. ",C3," (",D3,");"),CONCATENATE("DROP INDEX ",E3,";")),
 IF(H3="新增",CONCATENATE("CREATE INDEX ",E3," ON public. ",C3," (",D3,");"),CONCATENATE("DROP  index ",E3,";"))))</f>
@@ -52536,28 +53982,28 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="B4" s="104">
+      <c r="B4" s="98">
         <v>2</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="106" t="s">
         <v>1523</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="107" t="s">
         <v>1527</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="109" t="s">
         <v>1528</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="98" t="s">
         <v>1529</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="99" t="s">
         <v>1525</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="99" t="s">
         <v>1526</v>
       </c>
-      <c r="I4" s="106" t="str">
+      <c r="I4" s="100" t="str">
         <f t="shared" ref="I4:I7" si="0">IF(G4="是",IF(H4="新增",CONCATENATE("alter table ",C4," add primary key (",D4,");"),CONCATENATE("alter table ",C4," DROP CONSTRAINT ",E4,";")),
 IF(F4="是",IF(H4="新增",CONCATENATE("CREATE UNIQUE INDEX ",E4," ON public. ",C4," (",D4,");"),CONCATENATE("DROP INDEX ",E4,";")),
 IF(H4="新增",CONCATENATE("CREATE INDEX ",E4," ON public. ",C4," (",D4,");"),CONCATENATE("DROP  index ",E4,";"))))</f>
@@ -52565,82 +54011,82 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="B5" s="104">
+      <c r="B5" s="98">
         <v>3</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="106" t="s">
         <v>1523</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="101" t="s">
         <v>1530</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="101" t="s">
         <v>1531</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="102" t="s">
         <v>1525</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="102" t="s">
         <v>1525</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="102" t="s">
         <v>1526</v>
       </c>
-      <c r="I5" s="106" t="str">
+      <c r="I5" s="100" t="str">
         <f t="shared" si="0"/>
         <v>CREATE INDEX IDX_CREATED_DATE ON public. T_OMS_APP_BU_VOICE_BIND_USER (CREATED_DATE);</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="B6" s="104">
+      <c r="B6" s="98">
         <v>4</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>1523</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="101" t="s">
         <v>1532</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="101" t="s">
         <v>1533</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="102" t="s">
         <v>1525</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="102" t="s">
         <v>1525</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="102" t="s">
         <v>1526</v>
       </c>
-      <c r="I6" s="106" t="str">
+      <c r="I6" s="100" t="str">
         <f t="shared" si="0"/>
         <v>CREATE INDEX IDX_LAST_UPDATED_DATE ON public. T_OMS_APP_BU_VOICE_BIND_USER (LAST_UPDATED_DATE);</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="B7" s="104">
+      <c r="B7" s="98">
         <v>5</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="106" t="s">
         <v>1523</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="103" t="s">
         <v>1534</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="103" t="s">
         <v>1535</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="104" t="s">
         <v>1525</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="102" t="s">
         <v>1525</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="104" t="s">
         <v>1539</v>
       </c>
-      <c r="I7" s="106" t="str">
+      <c r="I7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>DROP  index IDX_INTERFACE_UPDATE_DATE;</v>
       </c>
@@ -52648,10 +54094,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6" xr:uid="{6BAA3188-E7CE-4115-865B-E6C464A4D399}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H6">
       <formula1>"新增,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G3:G4 G7" xr:uid="{01666FB0-99EA-4100-A4F1-DD75A00248E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:G6 G3:G4 G7">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -52659,66 +54105,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B66A44-3999-4E22-93F2-DBAD09CBAABD}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="95" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="95" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="95" t="s">
-        <v>1514</v>
-      </c>
+    <row r="1" spans="1:9" ht="20.25">
+      <c r="A1" s="105" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="B2" s="120" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>